--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.318968333333333</v>
+        <v>0.021814</v>
       </c>
       <c r="H2">
-        <v>3.956905</v>
+        <v>0.065442</v>
       </c>
       <c r="I2">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="J2">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N2">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O2">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P2">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q2">
-        <v>1.954866268607222</v>
+        <v>0.006107229223333333</v>
       </c>
       <c r="R2">
-        <v>17.593796417465</v>
+        <v>0.05496506301</v>
       </c>
       <c r="S2">
-        <v>0.07980822066047773</v>
+        <v>0.002966979251672924</v>
       </c>
       <c r="T2">
-        <v>0.07980822066047774</v>
+        <v>0.002966979251672924</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.318968333333333</v>
+        <v>0.021814</v>
       </c>
       <c r="H3">
-        <v>3.956905</v>
+        <v>0.065442</v>
       </c>
       <c r="I3">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="J3">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.097371</v>
       </c>
       <c r="O3">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P3">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q3">
-        <v>3.120402532972778</v>
+        <v>0.05160735033133334</v>
       </c>
       <c r="R3">
-        <v>28.083622796755</v>
+        <v>0.464466152982</v>
       </c>
       <c r="S3">
-        <v>0.1273917187585591</v>
+        <v>0.02507158845158097</v>
       </c>
       <c r="T3">
-        <v>0.1273917187585591</v>
+        <v>0.02507158845158097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.318968333333333</v>
+        <v>0.021814</v>
       </c>
       <c r="H4">
-        <v>3.956905</v>
+        <v>0.065442</v>
       </c>
       <c r="I4">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="J4">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N4">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O4">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P4">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q4">
-        <v>8.869840894642779</v>
+        <v>0.14979870126</v>
       </c>
       <c r="R4">
-        <v>79.82856805178501</v>
+        <v>1.34818831134</v>
       </c>
       <c r="S4">
-        <v>0.3621149081708416</v>
+        <v>0.07277435025164972</v>
       </c>
       <c r="T4">
-        <v>0.3621149081708416</v>
+        <v>0.07277435025164972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.9977960000000001</v>
+        <v>0.194567</v>
       </c>
       <c r="H5">
-        <v>2.993388</v>
+        <v>0.583701</v>
       </c>
       <c r="I5">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="J5">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N5">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O5">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P5">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q5">
-        <v>1.478851079329333</v>
+        <v>0.05447259871166667</v>
       </c>
       <c r="R5">
-        <v>13.309659713964</v>
+        <v>0.490253388405</v>
       </c>
       <c r="S5">
-        <v>0.06037470447898702</v>
+        <v>0.02646356706978297</v>
       </c>
       <c r="T5">
-        <v>0.06037470447898704</v>
+        <v>0.02646356706978297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.9977960000000001</v>
+        <v>0.194567</v>
       </c>
       <c r="H6">
-        <v>2.993388</v>
+        <v>0.583701</v>
       </c>
       <c r="I6">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="J6">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>7.097371</v>
       </c>
       <c r="O6">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P6">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q6">
-        <v>2.360576131438667</v>
+        <v>0.4603047277856667</v>
       </c>
       <c r="R6">
-        <v>21.245185182948</v>
+        <v>4.142742550071</v>
       </c>
       <c r="S6">
-        <v>0.09637149292976348</v>
+        <v>0.2236226162216354</v>
       </c>
       <c r="T6">
-        <v>0.09637149292976348</v>
+        <v>0.2236226162216354</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.9977960000000001</v>
+        <v>0.194567</v>
       </c>
       <c r="H7">
-        <v>2.993388</v>
+        <v>0.583701</v>
       </c>
       <c r="I7">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="J7">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N7">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O7">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P7">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q7">
-        <v>6.710010802870668</v>
+        <v>1.33610910003</v>
       </c>
       <c r="R7">
-        <v>60.39009722583602</v>
+        <v>12.02498190027</v>
       </c>
       <c r="S7">
-        <v>0.2739389550013709</v>
+        <v>0.6491008987536779</v>
       </c>
       <c r="T7">
-        <v>0.2739389550013709</v>
+        <v>0.6491008987536779</v>
       </c>
     </row>
   </sheetData>
